--- a/steel/data/up-stream/生铁/生铁产量.xlsx
+++ b/steel/data/up-stream/生铁/生铁产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\生铁\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\生铁\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B1AB2-4E89-46A2-AD95-42B167188A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B223823-6B3B-4D94-B0FC-70C1FCD1FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>FUDIAN</author>
+    <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AEEF4EEB-106E-46EB-93DA-149CBEA5FE8B}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A0462AC2-8312-4031-AF18-C152D765446E}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoQnPGzZEwFHW7wXf3hsEofdNjr10DVv/EfeLCI/6V5mGigfTbs/bdQXWT69uQBXG3k5r/zsFHGbEaoIG0ynBdUxbHW2zT27biXwL3ZvcyRGJ8XyOPr7XeJIj5Np+K6JaWfsnW60+AeoaddM49BCAjUcuNPXq6vjILvu12B81ivLFKOVzO1NAjl5OKw4Jc3zHg0bjkAS4FuwNL+a7ZD7jfwgIR2H2oZFnr29UemDdO9cc3WXXdfOVagnHby1Vm/PdchTgSDfE8ehzDWk+0WtUhG1VlI788lzPWMKnHN+ZOBihOvc0qI0DtfjXqEUf9w4Z194hFGPUUTjMMEC2YHUetNgTfgEwQ9r+Z/WA9awVP26mP3HhVnyShV9z9LHZg+UnlU+4lh08feKaWHj+Po3tIwHYL12Y9dgA4mN40UHvfCS8PubLPd2dsdN9VajxQXhfexsJ/+cd4wwc3AvNLOsrcTdUA+7V6TiIJg4/W+SEG2HNv/+w1O8ApQ/h1g7hkvbcgnO6LAppakGNA80yWAVEICTh8wfEkH+JTkIYqmALiSmB5xE/UJmxtkiOMAYcdPHYwD4EJVuWU0ePE8Vo/2HBEEvjcqn5DaqSVJ78DkJfvsGgQIOCLoY6Or6Vz4kp4s2XxZ/YqbpVcgYXwfN8xKDeDS0OqMFhdlZMjbk3UsX0Qr4TuA1FZniG7jJh5WlSo73tMEaiPt+5NFeA9TeC+mOUzAUKFF+V9P0HjT7ndk8vqRqA1EZRydw/zglyyDGSMbUlTHGq0JzGPUvrmygT6U3xEy0FEKosvNotiSmEyUis9zhrH5218VgGmtd3nxyn1MCrXiff8RforL5SaOzKGGTVL57XtejsC5T/83DD4dA9l8Xsmmt2dBoJPrH/K4zQyk2w0JAjxSdm+RjXy+Q1Rnrdnzf3lnHRelVxDXwHhCQJHR/DOZ6DBrrN8IYqLgp4q/9zrBn0znbO6Vh2JNX8o1fwyXus1MiPCo5HOv97LBHB3Dn1dokfSLFGfbXE3ZTbL3PSScMKWORH0TlZjR57U/sFJtHOJCOmZIqeVI7eeFn3RfBJrCW3PApRkbCAC19yTC1IMBq9xwxsBzyOKEtBUF6k/Q0KGM98BrK7xziU9GPm3AX1EtaK9HiMCUPbW3Gk49MFYn1OqCWPMo25Q3Ft3xAAGiNtteNG8gUahhGH1e2jbEYxd1HUs2hB0+8CHJH/Fq5v3TTn3ezOwKxf8x7oFdNEtHiv10P5wQYf0iLVBFd2hhKtJq/aVHraMYAob4dy85NpWhX6zcP3XL1yExM3RYuGWRj2rcq8AVvrtzkDDl09eLmZGLdE291OrjkPJ/CuZTfDtJyM86srmuhf5Z5p4ChYS2f88OrAcBSQy4ws3yu99HuVU9Q9ZSwEyqUAB/7hrlil9A9ymUWzBesEO4nGxv1V7DQMX7YrD4xOyqfMZtyV4+UiY/JEKV1e9Ps9AcAGrd8Xfpk+S+0AmqtEA6lw6vfTgkejz0XJyoT55jBB8cUWX2KhtMufwJCtRz0tVXlkIc8bXZPT6qB/nSp3fjgV4DTjjZFSE7mMltSYDzZfH96lfL8kJWoQ7cuWCQgsv/ch0KQa59/l9SYtFAL6JtCC4GjpOgmFZpNtSOD5hU1McA/16iuLKhtUVUTIA1XiA/E2B147MX6klPLbocLkFbo77LCeghbSNp+QrgwFxQciEfXROaokb3znA6lnphZqJtsHRAtE+Ej8DMQKZKRlKQLEtxs3te2kjfvj0Yy6wCgVgKAbNIzp8IxebneF8YqDevrwxJyNYfe2ECapvyUfK+etlUFEz2T1FCuurJKIHXG7D4un2LPSO0asREwltDSNxwNUkIrlFmhG6G/lElfMeUY+rx+1wviRJXx1dQeh6MkQdWPOgisy1GA1KPZoLlqlsm8ygHo4qwXx6Z+0OHY1OSJqBFzIchr8GHbX48RSDc1jIleipgkKKQvAQTs/Zh8Favz1KM+48J3Oqth3FGXT6i1bj33W5qpaneYKs2Sjp0Mx1oK68kxOMzT1M7aU7+ea3w8RZHvWc80Hon+U2reo9vBSpAYWNsNDazD3CiNzFMo27MoumQts3j0uecMxOM2B+VzgF3//WBWdU70l2TdKFYYk2tHfJ/5Z1V5eG+709QGh20w7NbhehkIIWvra9/eZeeyTKNdAKsL1QuSY3Lxs+YSRAuCs+KWIZn72vQ7xEI0/fCJvayaxElwqE9v7fGQ6q9ZfzsXs5O7mf5FNWSP6u0qHNvhGBQ35+1sZcSh26oiHIutnOeLz82/RFj+3yO9OBQLK5h+YAgzXo5BSJVW8u5/FdT7qeECoqJSeq++CKNNDKNGA82nFI8uBqsxdPp6cUkprixTlVIqPelTOgcsPdKqIvZnpu71O4Hs0ZAqy5g/ru3JQlRyIol4E0qAp+vlPYEZPhzWkXgu/qmVn3z+WTiQvCo8kNdsgVFabE/ZOaAi9Lq8rzk0GnZZGeOTFuGocSENEW47dEJHxUso8YuTaBVj7rduMhqN50DClkDH9jAu9pE667oOQDUYuXSCxXCw0zdpt/YkaP4MIghcfpIM4hYm9Y4SbYHwh6o1RZc0S1qZOMNzkep4yxwSO5e/uV/0KF9wBqelHvLgxSMsU8QjeGVaAoqscPILv+Ex9Onur2A9B4Hg7PQc9t/GwVsLDlhZRuUNwdQPb2giMRD7khw8CO5th3eltxjwnHepxcbea9XLV4kg34MU0GKO89k7w8UQ7JoICyeI5ithwduNOUD11Lc2RzuTP58On/+1ZvZ8WnhY9/bnbnG1zpA+j28K+mcNj1XGgWQBhTmeorGMVEmgN7eyEsoN2qgtWSzyrUGsmsVcQJHoOFIK9X8b7V6x6NUN7CRs7ugqk9BezyFt/2QXAige/QVvzgkUQ1x6qJx+jcefrs+BGbzpDkJ2i0hEWhOzILVvgspzqym0nGsqP1dn+y7FR1vPi4ol7kbJVvHpI5cXudGHSa7dcKUvS9aAvejRVACE/615BN7AXGPh/0c5+n/nxAhgjt2eHCuvHqrhqf1514eLK9hA7DSpmZRzm0WgXJRQdMo6Rpq6tVaHJN/D9cJYTcGdyJPmqBRAy1EANDmAjei+yhnQf6CGYf/u84sJdB2PnKt9//fyo3etU5zf5gZRUVmJ/jMjX1npTjxFjI3O6428R3w9N5npugao372M14p5+rOROfCIW+2p7alZblbCRxKcVZUhxUS4g3rdeT0BrPwbmJT8nfnW90bpDlRrm6MLm9IEhL9rDt31OcUBSEq2Gyls9iaM8p4QAetE3I1tGpsX8qYgS1ZGV2zPxIL0AML6cv09w1jGZS0EFPp3KNqM6wFmVdhkYVJH3hN8l+g7/o3yKbc82c4A8OVUrjokq8ZWoy9VoSmHsm1oigwePXiJMPuQwGfowRjJyXY6zvo5OAjeYN05BrzeOS4aiCXyT3dHEucmT+FgVUewvX49AiAfBw7NxzQAbkBJhMaMpCuygO6tu5bRaMYW3eK8gfpsx79xr4VpB3Mw+x4oVcOYEZ/ERNQvTy2rKg+3UMUju7nWI3AlRj2V8IpiKidlSNv70eX4dSbYzKltQdI0jMlT8xJMY/Jwbai6hSbJ2nRr+v8uVyqDGk8TTH5uASM0n67TOgauThy59eIqbDwM628zLMBS4yDhuawHDx4hU9JW0m9xDZzl59OWLg3erzQ8PDk5KOkmCvRuH3G+3N1sjukETuPFbxrs7a891QSsnyFfD7TcWsRAyiDO7WbEwaOyVrmJDFGERH+JEWHIuHz0bow/vyZ6stAaWkf40qtASHBoooZ89/d82z6Fb8101+TvQ86vr+fVndBdqd8SA2MnRGdXGi4AeSvmni4BpSN+KHBhXMy05MYfPI6OZbo+xmn+xqHddzmf5Fd3sjwe5zy3d3I2y0AGAhkgj+DhaLb3jr5qfCHvF/+yxtFKUoIyspVlrySGmeE4Q/3IrhU=</t>
+          <t>yVjpCgZpNvMCeFm4fm7sAsD+C0bXz3vHqlH6zBv0F52D/k4UjJYNKKB1PcxJepWkV5vxbqt01ArSEQnOenpBfuTHArJF0wF8WPGUZC/l3n4bqtNqYaYCSXI8IZNBQufVCc/dZLM/szAnHBXBeGFhCTze6/2yQvK0spYS2axeYKI5o+HHisFmyQTl4+sYPIm0ggsgemoBCNwIahoLfrDdO6Fw2GBpr6tw7TQQzJp/gD5BEX+kXHGdSBONMM+bJbOrSQC2p8b60sqVZMqfeF2pSaDsd1k/AZXG42gyjzAG+pPS5/r/v7uJ9pwtK60I4z8zaWcax3HLm/r2vJgQ5/8YcjyjOjBtRWpZ8RAJxzGTxwAeLvC+wB8hrCBa53b8m5ix+2Hfqi/3xu6FTihN4jUGFX4XIgQ06YSr/Dp3EcC/z5h12SBePxx0pbLzIkHwcmE3+c8C+mrfErklaypz5O57mYT2pzcYdANc6YkCxS1bcXNL28urmqCVf5767RU+0qSTEIBU172dvx2sJ6ekRRoGk1t1xjEhiwlbKZ85UhV8KHMCVyPQvUASbcjgB8bXI9IyfCSzL3Furviu14wT8UEGB3X5lMYfWAaE+2cGS3Jh/F1BKjpiihXpArF3I52VznmMHRQFdWNUJFH7tMy/hEK9H7xRwUJQb1i8Ywmp1Ngye+mm8WQnudli/hfGdDe0a32Mwz+p9k8RaQj8R/I9WeLQoF5AerOthVU3ZZ1yB0l7a7x6JTshJ7/iqz6DN5+YPFkUWWys6b6xoM2sJpqBd/gSP0bZeV9lqBz2DMcM0fHLOVUYmjZHmc0gPKo6GqMKvdRhNJQcCHL/ZR/jdoLHTDEMj02GMQ4WtKz4iVtvqMBRThcNK3RZkRwZUsexh1O1BnRTcoRsvp9VT7Xm7OIFqSs6xBq1aIz//xKYaz19wBRJct1kJcLDixlapoXwt/jsLBuOOH7riKuVNTI+FrqFSB/fQrWKe2FAXf5mi3WORqxF/C1sGCVhihhxEhNK+qSZ0VPXrwa4bgWwgpeB0cxUhSXRKTNW/g8yfRkykLH9Ph40R8PJJcn0u+yECLjqJTFEmKy/bh/66tS38jtpjEVoEChwhiNtyy5nV4PyqH5q4fuxqN1H4ZPPxlS5efyHgRhknG1cWK53ubbm64QaYHz2lDnzPsM13HkT/Svz1QyuuRmw4JNU+QlgI2CBuumlkGBSJfDdQq5Ps7ke0QlG8NvsoF6ZTNnl0e07l5pkc/hwwSw3CnePHKu1f9ABRC7aszgyTqrog0cz0byPDzlpHYzJP0IWReSDCxY3LvCcFNhZ/AzDItqqBq3761alNlW1H4dwtC5nfCv6ork8x7OK0fBmRGq3lasmj6dEC6EhOVBo83iZ3vafF0KYy9U77jhLV248lqbmLvh+mbvRLsybM8ih0YCJQcnnkRDGTjXb0KkCrcZUnHwnmu/JiOkdJ8lk2f6SsbR8QCjbe3Eqj6dWRzlSTnRFkp6QBT2r5Sg8mk5jyw7vuJLqee1G+AAZo6dQB5vpQF6Kddi0pu70vh/ufmKwV4dtSLTb9pYZr7+SCdJFkvNtxVSQ6Qs+29pE+7K9OhKlVoSuViD9vKDWH/gHtwP1NJkxZOsnsWbP1UiOeEL68UjAvXfCcf8ZyR3Uc9iMIIyQngGB/C/rjX0ANuHWUVR0UwOIzlEtnALaKGVgLJL2EVGfK+sS199zb9nN0LsiNYXwEoRji5NPK1CWKQwEkuHNMh8ELlaM27e+Bn0luFhmILqVH/E+rk9nEy1mW+HFUeBpB7/X23vP/tB/macRjsa9zM8Ra17go99Gn+7mKg2celejHX6Pqi9Dcie/SeRuYyJD3j44M6wbNn624GtC8nYww2E5A3pzBCpKUbXLfLttv400qtFO93LijcAnDSCNd+lmynBc5PNJ5/7OcndNLVcg441AxnJ9JHLOdzsvpSzE1T0m+pmPTyN7MRUXpB/DZcnqlmV4UHu7BixHoOAOQr7lZUpVEAuphlqFVdkNTpnOcgNF4tYjqNseEA8K/fhz2ygf1N/DNi/AVf7FuF0gMowJEuGOIC3jm/aJr2+a+RnvvWpoe5DxW3kqXV/yw5zDEGvLBXA8mYKdJvDyReCkEGcy8DhF3XMW4xnVCctvv+5Zp4RECx+zT0/WpD8kDeiKrjsYxpD6SWntwhmjQgrqcYk67/dGa2XmLztExGuX9gnP89bMEIM6omfGjroTnIao3M91iRgJ2T+gn6Tctn/j5jg49t+60CPjCqlf78hsy1FbUVLXQAs1C9+2Seyxh3XDwE12PGHTm4F2/zAJK5VRHtfI2astauARErM+Hh5Al9j6RCBglqicXsa2+uy7qbY36wre+iRAAWckx9D9PNrAWlinSktm9zww1v9i42KqnYvmkff3v0eRPV/XZPQQQsLoO4f41T9sqU12D3ml0FVcD88F5gTO8Ga24BYOHRcUoYYgwBBO4bRQ88mkeRTWfFRKh+luO5OM3QlLJYRtG+VMfIeK/3iPNgmEFjbeJflM6dAOTdQLzl76j1c5EhaM1zOOpa5buEBX6sn6WDdsccC2Lo4B/KtFfWlQSnohosigosqLdNuaX1ItREU2yV8vCvM5gvZ15N7vAJIK4BUBB3S67wgCzuGS2pwJ5NpfqNbzRWe24U/kAIzqRohfZUivNT0fGDnS0g08zFgDUDkBc13+cI9YaSHWyUIzn8Ybo/htgA4+68Kyh+90hugCSMfQa4A6w/m3IdHFtIseBh9oS0OZ1eY6LnbQd1k9rNHbQ696wBRytLwWxFoJsJrNvUm17f0dbxUo1HHiYrIWYMfLyli0igDK94Z1GmswTrzNQJaDfMknmMMAhenZ8kYO2cd5C6QN2kj9FgRI</t>
         </r>
       </text>
     </comment>
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -322,7 +322,7 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,29 +828,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF154"/>
+  <dimension ref="A1:AF155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="32" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="32" width="20.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2010-3-29","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -948,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>40268</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>67.390720000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>40298</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>70.219399999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>40329</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>72.802999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>40359</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>77.035499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>40390</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>80.715199999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>40421</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>81.811800000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>40451</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>83.304900000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>40482</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>86.639200000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>40512</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>88.933300000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>40543</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>87.481300000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>40574</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>74.861800000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>40602</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>68.289599999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>40633</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>74.844399999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>40663</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>81.150899999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40694</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>87.1648</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>40724</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>88.236000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>40755</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>87.474699999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>40786</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>100.4862</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>40816</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>103.6317</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>40847</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>101.58620000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>40877</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>85.176699999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>40908</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>101.4829</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>40939</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>96.768409000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>40968</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>91.668700000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>40999</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>94.921599999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>41029</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>101.1665</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>41060</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>115.2602</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>41090</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>121.4834</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>41121</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>108.4957</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>41152</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>121.065</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>41182</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>113.1277</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>41213</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>101.93389999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>41243</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>103.80609800000001</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>41274</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>110.87990000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>41333</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
     </row>
-    <row r="41" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>41364</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>101.882755</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41394</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>106.186554</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41425</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>110.3832</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41455</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>108.491975</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>41486</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>111.159113</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>41517</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>121.184905</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>41547</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>115.09554</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>41578</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>110.803687</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>41608</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>100.14239999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>41639</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>140.67862600000001</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>41698</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
     </row>
-    <row r="52" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>41729</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>102.186263</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>41759</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>107.334126</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>41790</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>110.115382</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>41820</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>95.672629000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>41851</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>101.068524</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>41882</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>139.49904100000001</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>41912</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>129.49119899999999</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>41943</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>127.446133</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>41973</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>104.28894699999999</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>42004</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>97.085745000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>42063</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
     </row>
-    <row r="63" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>42094</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>55.902318999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>42124</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>74.808080000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>42155</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>85.275599999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>42185</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>85.989054999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>42216</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>84.552199999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>42247</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>76.343699999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>42277</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>62.339700000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>42308</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>55.140051</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>42338</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>42369</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>42460</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>41.37</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>42490</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>77.08</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>42521</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>42551</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>42582</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>85.29</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>42613</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>42643</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>99.55</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>42674</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>98.72</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>42704</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>76.650000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>42735</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>55.08</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>42825</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>73.09</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>42855</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>106.58</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>42886</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>42916</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>42947</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>111.86</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>42978</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>107.0924</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>43008</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>99.200919999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>43039</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>104.27</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>43069</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>99.514610000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>43100</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>43.712519999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>43190</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>73.967609999999993</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>43220</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>78.678669999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>43251</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>82.861059999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>43281</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>106.32</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>43312</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>116.93</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>43343</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>118.22735</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>43373</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>119.15</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>43404</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>117.95</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>43434</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>101.57398999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>43465</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>43555</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>80.581829999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>43585</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>109.19122</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>43616</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>122.41528</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>43646</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>120.7516</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>43677</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>117.40733</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>43708</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>112.99836999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>43738</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>106.08456</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>43769</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>103.80301</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>43799</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>87.727379999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>43830</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>81.347059999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>43921</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>55.338459999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>43951</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>90.824510000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>43982</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>112.66473999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>44012</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>115.65358000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>44043</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>118.39057</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>44074</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>108.73438</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>44104</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>117.00557000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>44135</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>116.48541</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>44165</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>106.3912</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>44196</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>93.493359999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>44286</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>97.334090000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>44316</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>113.17501</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>44347</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>113.0308</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>44377</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>126.35397</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>44408</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>115.22953</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>44439</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>119.70983</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>44469</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>91.288619999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>44500</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>72.778499999999994</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>44530</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>54.499079999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>44561</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>82.379459999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>44651</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>103.88869</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>44681</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>112.05491000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>44712</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>119.87915</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>44742</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>119.37192</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>44773</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>99.411479999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>44804</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>103.29219000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>44834</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>103.38496000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>44865</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>61.743499999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>44895</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>47.188040000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>44926</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>47.920380000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>45016</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>107.62956</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>45046</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>113.05539</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>45077</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>117.65194</v>
       </c>
     </row>
-    <row r="146" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>45107</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>111.60148</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>45138</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>110.0185</v>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>45169</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>103.20862</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>45199</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>92.199619999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>45230</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>99.344610000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>45260</v>
       </c>
@@ -14686,13 +14686,105 @@
         <v>72.3352</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>45291</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6">
+        <v>113.14216999999999</v>
+      </c>
+      <c r="D152" s="6">
+        <v>1110.7564</v>
+      </c>
+      <c r="E152" s="6">
+        <v>381.19783999999999</v>
+      </c>
+      <c r="F152" s="6">
+        <v>192.01802000000001</v>
+      </c>
+      <c r="G152" s="6">
+        <v>567.42250999999999</v>
+      </c>
+      <c r="H152" s="6">
+        <v>117.75279999999999</v>
+      </c>
+      <c r="I152" s="6">
+        <v>71.44529</v>
+      </c>
+      <c r="J152" s="6">
+        <v>98.259100000000004</v>
+      </c>
+      <c r="K152" s="6">
+        <v>599.18596000000002</v>
+      </c>
+      <c r="L152" s="6">
+        <v>70.665989999999994</v>
+      </c>
+      <c r="M152" s="6">
+        <v>242.91596000000001</v>
+      </c>
+      <c r="N152" s="6">
+        <v>132.5615</v>
+      </c>
+      <c r="O152" s="6">
+        <v>217.74969999999999</v>
+      </c>
+      <c r="P152" s="6">
+        <v>577.87021000000004</v>
+      </c>
+      <c r="Q152" s="6">
+        <v>147.81442000000001</v>
+      </c>
+      <c r="R152" s="6">
+        <v>226.84200999999999</v>
+      </c>
+      <c r="S152" s="6">
+        <v>170.76389</v>
+      </c>
+      <c r="T152" s="6">
+        <v>190.33726999999999</v>
+      </c>
+      <c r="U152" s="6">
+        <v>296.47188</v>
+      </c>
+      <c r="V152" s="6"/>
+      <c r="W152" s="6">
+        <v>44.650300000000001</v>
+      </c>
+      <c r="X152" s="6">
+        <v>135.09978000000001</v>
+      </c>
+      <c r="Y152" s="6">
+        <v>37.12612</v>
+      </c>
+      <c r="Z152" s="6">
+        <v>128.90369000000001</v>
+      </c>
+      <c r="AA152" s="6"/>
+      <c r="AB152" s="6">
+        <v>78.810109999999995</v>
+      </c>
+      <c r="AC152" s="6">
+        <v>66.938550000000006</v>
+      </c>
+      <c r="AD152" s="6">
+        <v>8.5451999999999995</v>
+      </c>
+      <c r="AE152" s="6">
+        <v>6.1216799999999996</v>
+      </c>
+      <c r="AF152" s="6">
+        <v>55.719850000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>38</v>
       </c>
     </row>
